--- a/print_best_result_excel/tested_state_c51_optimal_design.xlsx
+++ b/print_best_result_excel/tested_state_c51_optimal_design.xlsx
@@ -434,19 +434,19 @@
         <v>0</v>
       </c>
       <c r="D1" t="n">
-        <v>314.81886362201</v>
+        <v>321.5198032483135</v>
       </c>
       <c r="E1" t="n">
         <v>1</v>
       </c>
       <c r="F1" t="n">
-        <v>0.02202959956115095</v>
+        <v>0.02204972923320421</v>
       </c>
       <c r="G1" t="n">
-        <v>26.59049341133513</v>
+        <v>26.44691884817075</v>
       </c>
       <c r="H1" t="n">
-        <v>23.40950658866487</v>
+        <v>23.55308115182925</v>
       </c>
       <c r="I1" t="n">
         <v>44.7</v>
@@ -462,25 +462,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>119.7127060640775</v>
+        <v>114.5874926023282</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02089040802385583</v>
+        <v>0.02204591974672</v>
       </c>
       <c r="G2" t="n">
-        <v>30.12820827182942</v>
+        <v>26.47499573797487</v>
       </c>
       <c r="H2" t="n">
-        <v>19.87179172817058</v>
+        <v>23.52500426202513</v>
       </c>
       <c r="I2" t="n">
         <v>44.7</v>
@@ -508,13 +508,13 @@
         <v>0.8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008329663140370109</v>
+        <v>0.008327739773207091</v>
       </c>
       <c r="G3" t="n">
-        <v>23.05625904979392</v>
+        <v>22.99771801893794</v>
       </c>
       <c r="H3" t="n">
-        <v>26.94374095020608</v>
+        <v>27.00228198106206</v>
       </c>
       <c r="I3" t="n">
         <v>44.7</v>
@@ -542,13 +542,13 @@
         <v>0.8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008328141186339899</v>
+        <v>0.008328245821440983</v>
       </c>
       <c r="G4" t="n">
-        <v>23.00978932992354</v>
+        <v>23.01294833526214</v>
       </c>
       <c r="H4" t="n">
-        <v>26.99021067007646</v>
+        <v>26.98705166473786</v>
       </c>
       <c r="I4" t="n">
         <v>44.7</v>
@@ -576,13 +576,13 @@
         <v>0.8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.008328899670642605</v>
+        <v>0.008328137171093188</v>
       </c>
       <c r="G5" t="n">
-        <v>23.0328068332645</v>
+        <v>23.00966820977411</v>
       </c>
       <c r="H5" t="n">
-        <v>26.9671931667355</v>
+        <v>26.99033179022589</v>
       </c>
       <c r="I5" t="n">
         <v>44.7</v>
@@ -610,13 +610,13 @@
         <v>0.8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.008329754457675087</v>
+        <v>0.008327767071502248</v>
       </c>
       <c r="G6" t="n">
-        <v>23.05908365270154</v>
+        <v>22.99853655705885</v>
       </c>
       <c r="H6" t="n">
-        <v>26.94091634729846</v>
+        <v>27.00146344294115</v>
       </c>
       <c r="I6" t="n">
         <v>44.7</v>
@@ -638,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>958.1538490856531</v>
+        <v>948.7383410859967</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0220137392057705</v>
+        <v>0.01665127970344506</v>
       </c>
       <c r="G7" t="n">
-        <v>26.69616860819773</v>
+        <v>21.31431232157026</v>
       </c>
       <c r="H7" t="n">
-        <v>23.30383139180227</v>
+        <v>16.68568767842974</v>
       </c>
       <c r="I7" t="n">
         <v>44.7</v>
@@ -666,31 +666,31 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
-        <v>334.976990090532</v>
+        <v>358.6923867851465</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02159835184077623</v>
+        <v>0.02204411503303514</v>
       </c>
       <c r="G8" t="n">
-        <v>28.43297248638665</v>
+        <v>26.48864838435781</v>
       </c>
       <c r="H8" t="n">
-        <v>21.56702751361335</v>
+        <v>23.51135161564219</v>
       </c>
       <c r="I8" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J8" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="9">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>571.2955710966346</v>
+        <v>597.8651461879007</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02200092822391283</v>
+        <v>0.02204108639271027</v>
       </c>
       <c r="G9" t="n">
-        <v>26.77661964060929</v>
+        <v>26.50753584172061</v>
       </c>
       <c r="H9" t="n">
-        <v>23.22338035939071</v>
+        <v>23.49246415827939</v>
       </c>
       <c r="I9" t="n">
         <v>44.7</v>
@@ -734,31 +734,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>209.5601369025871</v>
+        <v>211.6642361552167</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02185300733835739</v>
+        <v>0.02204673371386126</v>
       </c>
       <c r="G10" t="n">
-        <v>27.52097119429376</v>
+        <v>26.46936414515556</v>
       </c>
       <c r="H10" t="n">
-        <v>22.47902880570624</v>
+        <v>23.53063585484444</v>
       </c>
       <c r="I10" t="n">
         <v>44.7</v>
       </c>
       <c r="J10" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="11">
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>814.6887009359519</v>
+        <v>908.8684373763622</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02192396790353739</v>
+        <v>0.02176792832022018</v>
       </c>
       <c r="G11" t="n">
-        <v>27.19539188647617</v>
+        <v>27.86027557285465</v>
       </c>
       <c r="H11" t="n">
-        <v>22.80460811352383</v>
+        <v>22.13972442714535</v>
       </c>
       <c r="I11" t="n">
         <v>44.7</v>
@@ -802,31 +802,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>303.2160898483764</v>
+        <v>335.0946557552585</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0220229334560644</v>
+        <v>0.01912026095826554</v>
       </c>
       <c r="G12" t="n">
-        <v>26.63580340531645</v>
+        <v>24.15889590443475</v>
       </c>
       <c r="H12" t="n">
-        <v>23.36419659468355</v>
+        <v>21.84110409556525</v>
       </c>
       <c r="I12" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="J12" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="13">
@@ -848,13 +848,13 @@
         <v>0.8</v>
       </c>
       <c r="F13" t="n">
-        <v>0.008330100537385022</v>
+        <v>0.008327986836109654</v>
       </c>
       <c r="G13" t="n">
-        <v>23.06982708774257</v>
+        <v>23.00513879797016</v>
       </c>
       <c r="H13" t="n">
-        <v>26.93017291225743</v>
+        <v>26.99486120202984</v>
       </c>
       <c r="I13" t="n">
         <v>44.7</v>
@@ -882,13 +882,13 @@
         <v>0.8</v>
       </c>
       <c r="F14" t="n">
-        <v>0.008328670852718394</v>
+        <v>0.008327867465350103</v>
       </c>
       <c r="G14" t="n">
-        <v>23.0258338526827</v>
+        <v>23.00154983375905</v>
       </c>
       <c r="H14" t="n">
-        <v>26.9741661473173</v>
+        <v>26.99845016624095</v>
       </c>
       <c r="I14" t="n">
         <v>44.7</v>
@@ -916,13 +916,13 @@
         <v>0.8</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008333052434913488</v>
+        <v>0.008327810672778709</v>
       </c>
       <c r="G15" t="n">
-        <v>23.16426759432158</v>
+        <v>22.99984465533994</v>
       </c>
       <c r="H15" t="n">
-        <v>26.83573240567842</v>
+        <v>27.00015534466006</v>
       </c>
       <c r="I15" t="n">
         <v>44.7</v>
@@ -950,13 +950,13 @@
         <v>0.8</v>
       </c>
       <c r="F16" t="n">
-        <v>0.008334253682604756</v>
+        <v>0.008328547917510504</v>
       </c>
       <c r="G16" t="n">
-        <v>23.20407106225091</v>
+        <v>23.02209798509174</v>
       </c>
       <c r="H16" t="n">
-        <v>26.79592893774909</v>
+        <v>26.97790201490826</v>
       </c>
       <c r="I16" t="n">
         <v>44.7</v>

--- a/print_best_result_excel/tested_state_c51_optimal_design.xlsx
+++ b/print_best_result_excel/tested_state_c51_optimal_design.xlsx
@@ -434,25 +434,25 @@
         <v>0</v>
       </c>
       <c r="D1" t="n">
-        <v>321.5198032483135</v>
+        <v>335.2996747096478</v>
       </c>
       <c r="E1" t="n">
         <v>1</v>
       </c>
       <c r="F1" t="n">
-        <v>0.02204972923320421</v>
+        <v>0.02455101879267043</v>
       </c>
       <c r="G1" t="n">
-        <v>26.44691884817075</v>
+        <v>29.52327544556051</v>
       </c>
       <c r="H1" t="n">
-        <v>23.55308115182925</v>
+        <v>26.47672455443949</v>
       </c>
       <c r="I1" t="n">
         <v>44.7</v>
       </c>
       <c r="J1" t="n">
-        <v>25.3</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="2">
@@ -468,25 +468,25 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>114.5874926023282</v>
+        <v>115.2635045634088</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02204591974672</v>
+        <v>0.02201649671628174</v>
       </c>
       <c r="G2" t="n">
-        <v>26.47499573797487</v>
+        <v>26.67801803173611</v>
       </c>
       <c r="H2" t="n">
-        <v>23.52500426202513</v>
+        <v>23.32198196826389</v>
       </c>
       <c r="I2" t="n">
         <v>44.7</v>
       </c>
       <c r="J2" t="n">
-        <v>25.3</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="3">
@@ -505,16 +505,16 @@
         <v>2000</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008327739773207091</v>
+        <v>0.01473022754528612</v>
       </c>
       <c r="G3" t="n">
-        <v>22.99771801893794</v>
+        <v>40.26247080828048</v>
       </c>
       <c r="H3" t="n">
-        <v>27.00228198106206</v>
+        <v>28.73752919171952</v>
       </c>
       <c r="I3" t="n">
         <v>44.7</v>
@@ -539,16 +539,16 @@
         <v>2000</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008328245821440983</v>
+        <v>0.01473108861000385</v>
       </c>
       <c r="G4" t="n">
-        <v>23.01294833526214</v>
+        <v>40.25706285537704</v>
       </c>
       <c r="H4" t="n">
-        <v>26.98705166473786</v>
+        <v>28.74293714462296</v>
       </c>
       <c r="I4" t="n">
         <v>44.7</v>
@@ -573,16 +573,16 @@
         <v>2000</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F5" t="n">
-        <v>0.008328137171093188</v>
+        <v>0.0143629005119585</v>
       </c>
       <c r="G5" t="n">
-        <v>23.00966820977411</v>
+        <v>40.02537388290745</v>
       </c>
       <c r="H5" t="n">
-        <v>26.99033179022589</v>
+        <v>27.97462611709256</v>
       </c>
       <c r="I5" t="n">
         <v>44.7</v>
@@ -607,16 +607,16 @@
         <v>2000</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F6" t="n">
-        <v>0.008327767071502248</v>
+        <v>0.01475728731305106</v>
       </c>
       <c r="G6" t="n">
-        <v>22.99853655705885</v>
+        <v>40.08899030846919</v>
       </c>
       <c r="H6" t="n">
-        <v>27.00146344294115</v>
+        <v>28.91100969153081</v>
       </c>
       <c r="I6" t="n">
         <v>44.7</v>
@@ -638,25 +638,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>948.7383410859967</v>
+        <v>1019.712178670642</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01665127970344506</v>
+        <v>0.02200455101530732</v>
       </c>
       <c r="G7" t="n">
-        <v>21.31431232157026</v>
+        <v>26.75398305787598</v>
       </c>
       <c r="H7" t="n">
-        <v>16.68568767842974</v>
+        <v>23.24601694212402</v>
       </c>
       <c r="I7" t="n">
         <v>44.7</v>
       </c>
       <c r="J7" t="n">
-        <v>25.3</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="8">
@@ -669,28 +669,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>358.6923867851465</v>
+        <v>377.9674595291783</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02204411503303514</v>
+        <v>0.02446637594769595</v>
       </c>
       <c r="G8" t="n">
-        <v>26.48864838435781</v>
+        <v>29.99575350587594</v>
       </c>
       <c r="H8" t="n">
-        <v>23.51135161564219</v>
+        <v>26.00424649412406</v>
       </c>
       <c r="I8" t="n">
-        <v>25.3</v>
+        <v>44.7</v>
       </c>
       <c r="J8" t="n">
-        <v>25.3</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="9">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>597.8651461879007</v>
+        <v>621.1098632256687</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02204108639271027</v>
+        <v>0.02318628450179678</v>
       </c>
       <c r="G9" t="n">
-        <v>26.50753584172061</v>
+        <v>28.67219927886565</v>
       </c>
       <c r="H9" t="n">
-        <v>23.49246415827939</v>
+        <v>24.32780072113435</v>
       </c>
       <c r="I9" t="n">
         <v>44.7</v>
       </c>
       <c r="J9" t="n">
-        <v>25.3</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="10">
@@ -740,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6642361552167</v>
+        <v>219.0834566593836</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02204673371386126</v>
+        <v>0.02369683491999809</v>
       </c>
       <c r="G10" t="n">
-        <v>26.46936414515556</v>
+        <v>28.67319406715362</v>
       </c>
       <c r="H10" t="n">
-        <v>23.53063585484444</v>
+        <v>25.32680593284638</v>
       </c>
       <c r="I10" t="n">
         <v>44.7</v>
       </c>
       <c r="J10" t="n">
-        <v>25.3</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="11">
@@ -774,25 +774,25 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>908.8684373763622</v>
+        <v>875.3827684597437</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02176792832022018</v>
+        <v>0.02203865838844453</v>
       </c>
       <c r="G11" t="n">
-        <v>27.86027557285465</v>
+        <v>26.52660133303281</v>
       </c>
       <c r="H11" t="n">
-        <v>22.13972442714535</v>
+        <v>23.47339866696719</v>
       </c>
       <c r="I11" t="n">
         <v>44.7</v>
       </c>
       <c r="J11" t="n">
-        <v>25.3</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="12">
@@ -808,25 +808,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>335.0946557552585</v>
+        <v>324.6801258542499</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01912026095826554</v>
+        <v>0.02497273808638074</v>
       </c>
       <c r="G12" t="n">
-        <v>24.15889590443475</v>
+        <v>29.9666598839109</v>
       </c>
       <c r="H12" t="n">
-        <v>21.84110409556525</v>
+        <v>27.0333401160891</v>
       </c>
       <c r="I12" t="n">
-        <v>25.3</v>
+        <v>44.7</v>
       </c>
       <c r="J12" t="n">
-        <v>25.3</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="13">
@@ -845,16 +845,16 @@
         <v>2000</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F13" t="n">
-        <v>0.008327986836109654</v>
+        <v>0.01470637633204898</v>
       </c>
       <c r="G13" t="n">
-        <v>23.00513879797016</v>
+        <v>40.40938170814674</v>
       </c>
       <c r="H13" t="n">
-        <v>26.99486120202984</v>
+        <v>28.59061829185326</v>
       </c>
       <c r="I13" t="n">
         <v>44.7</v>
@@ -879,16 +879,16 @@
         <v>2000</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F14" t="n">
-        <v>0.008327867465350103</v>
+        <v>0.014304299797401</v>
       </c>
       <c r="G14" t="n">
-        <v>23.00154983375905</v>
+        <v>40.35892835841028</v>
       </c>
       <c r="H14" t="n">
-        <v>26.99845016624095</v>
+        <v>27.64107164158972</v>
       </c>
       <c r="I14" t="n">
         <v>44.7</v>
@@ -913,16 +913,16 @@
         <v>2000</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008327810672778709</v>
+        <v>0.01391688584252216</v>
       </c>
       <c r="G15" t="n">
-        <v>22.99984465533994</v>
+        <v>40.16858712502228</v>
       </c>
       <c r="H15" t="n">
-        <v>27.00015534466006</v>
+        <v>26.83141287497771</v>
       </c>
       <c r="I15" t="n">
         <v>44.7</v>
@@ -947,16 +947,16 @@
         <v>2000</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F16" t="n">
-        <v>0.008328547917510504</v>
+        <v>0.0143427598760714</v>
       </c>
       <c r="G16" t="n">
-        <v>23.02209798509174</v>
+        <v>40.14380674715758</v>
       </c>
       <c r="H16" t="n">
-        <v>26.97790201490826</v>
+        <v>27.85619325284242</v>
       </c>
       <c r="I16" t="n">
         <v>44.7</v>

--- a/print_best_result_excel/tested_state_c51_optimal_design.xlsx
+++ b/print_best_result_excel/tested_state_c51_optimal_design.xlsx
@@ -431,22 +431,22 @@
         <v>0</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>346.5966732226262</v>
       </c>
       <c r="D1" t="n">
-        <v>335.2996747096478</v>
+        <v>1</v>
       </c>
       <c r="E1" t="n">
-        <v>1</v>
+        <v>0.02129094035623208</v>
       </c>
       <c r="F1" t="n">
-        <v>0.02455101879267043</v>
+        <v>29.26509169136127</v>
       </c>
       <c r="G1" t="n">
-        <v>29.52327544556051</v>
+        <v>20.73490830863873</v>
       </c>
       <c r="H1" t="n">
-        <v>26.47672455443949</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="I1" t="n">
         <v>44.7</v>
@@ -465,28 +465,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>110.8307535007674</v>
       </c>
       <c r="D2" t="n">
-        <v>115.2635045634088</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.01934624761484914</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02201649671628174</v>
+        <v>24.22316825551013</v>
       </c>
       <c r="G2" t="n">
-        <v>26.67801803173611</v>
+        <v>19.77683174448987</v>
       </c>
       <c r="H2" t="n">
-        <v>23.32198196826389</v>
+        <v>70</v>
       </c>
       <c r="I2" t="n">
         <v>44.7</v>
       </c>
       <c r="J2" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="3">
@@ -499,22 +499,22 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="D3" t="n">
-        <v>2000</v>
+        <v>0.9</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9</v>
+        <v>0.0118544253095994</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01473022754528612</v>
+        <v>26.64271023903579</v>
       </c>
       <c r="G3" t="n">
-        <v>40.26247080828048</v>
+        <v>33.35728976096421</v>
       </c>
       <c r="H3" t="n">
-        <v>28.73752919171952</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="I3" t="n">
         <v>44.7</v>
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="D4" t="n">
-        <v>2000</v>
+        <v>0.9</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9</v>
+        <v>0.01186158014437543</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01473108861000385</v>
+        <v>26.74583139691585</v>
       </c>
       <c r="G4" t="n">
-        <v>40.25706285537704</v>
+        <v>33.25416860308415</v>
       </c>
       <c r="H4" t="n">
-        <v>28.74293714462296</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="I4" t="n">
         <v>44.7</v>
@@ -567,22 +567,22 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="D5" t="n">
-        <v>2000</v>
+        <v>0.9</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9</v>
+        <v>0.01186518096240248</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0143629005119585</v>
+        <v>26.799048324259</v>
       </c>
       <c r="G5" t="n">
-        <v>40.02537388290745</v>
+        <v>33.200951675741</v>
       </c>
       <c r="H5" t="n">
-        <v>27.97462611709256</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="I5" t="n">
         <v>44.7</v>
@@ -601,22 +601,22 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="D6" t="n">
-        <v>2000</v>
+        <v>0.9</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9</v>
+        <v>0.01186652409104374</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01475728731305106</v>
+        <v>26.81913973301276</v>
       </c>
       <c r="G6" t="n">
-        <v>40.08899030846919</v>
+        <v>33.18086026698724</v>
       </c>
       <c r="H6" t="n">
-        <v>28.91100969153081</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>44.7</v>
@@ -635,22 +635,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1126.140135161729</v>
       </c>
       <c r="D7" t="n">
-        <v>1019.712178670642</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.01787332804078674</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02200455101530732</v>
+        <v>21.83960164549232</v>
       </c>
       <c r="G7" t="n">
-        <v>26.75398305787598</v>
+        <v>24.16039835450768</v>
       </c>
       <c r="H7" t="n">
-        <v>23.24601694212402</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="I7" t="n">
         <v>44.7</v>
@@ -669,22 +669,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>377.0495732629889</v>
       </c>
       <c r="D8" t="n">
-        <v>377.9674595291783</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0.02142240840060318</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02446637594769595</v>
+        <v>28.93271488473224</v>
       </c>
       <c r="G8" t="n">
-        <v>29.99575350587594</v>
+        <v>21.06728511526776</v>
       </c>
       <c r="H8" t="n">
-        <v>26.00424649412406</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="I8" t="n">
         <v>44.7</v>
@@ -703,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>598.7418561754057</v>
       </c>
       <c r="D9" t="n">
-        <v>621.1098632256687</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0.02203339332811525</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02318628450179678</v>
+        <v>26.5632097333916</v>
       </c>
       <c r="G9" t="n">
-        <v>28.67219927886565</v>
+        <v>23.4367902666084</v>
       </c>
       <c r="H9" t="n">
-        <v>24.32780072113435</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="I9" t="n">
         <v>44.7</v>
@@ -737,28 +737,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>204.3455593486477</v>
       </c>
       <c r="D10" t="n">
-        <v>219.0834566593836</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.0183952282767417</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02369683491999809</v>
+        <v>23.60136349206766</v>
       </c>
       <c r="G10" t="n">
-        <v>28.67319406715362</v>
+        <v>18.39863650793234</v>
       </c>
       <c r="H10" t="n">
-        <v>25.32680593284638</v>
+        <v>70</v>
       </c>
       <c r="I10" t="n">
         <v>44.7</v>
       </c>
       <c r="J10" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="11">
@@ -771,22 +771,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>887.1812137715135</v>
       </c>
       <c r="D11" t="n">
-        <v>875.3827684597437</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0.02194557291520167</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02203865838844453</v>
+        <v>27.08673342122646</v>
       </c>
       <c r="G11" t="n">
-        <v>26.52660133303281</v>
+        <v>22.91326657877354</v>
       </c>
       <c r="H11" t="n">
-        <v>23.47339866696719</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="I11" t="n">
         <v>44.7</v>
@@ -805,22 +805,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>325.7673349568731</v>
       </c>
       <c r="D12" t="n">
-        <v>324.6801258542499</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0.02077141887055474</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02497273808638074</v>
+        <v>30.35239132663112</v>
       </c>
       <c r="G12" t="n">
-        <v>29.9666598839109</v>
+        <v>19.64760867336888</v>
       </c>
       <c r="H12" t="n">
-        <v>27.0333401160891</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="I12" t="n">
         <v>44.7</v>
@@ -839,22 +839,22 @@
         <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="D13" t="n">
-        <v>2000</v>
+        <v>0.9</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9</v>
+        <v>0.01186534198719947</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01470637633204898</v>
+        <v>26.80145000768432</v>
       </c>
       <c r="G13" t="n">
-        <v>40.40938170814674</v>
+        <v>33.19854999231568</v>
       </c>
       <c r="H13" t="n">
-        <v>28.59061829185326</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="I13" t="n">
         <v>44.7</v>
@@ -873,22 +873,22 @@
         <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="D14" t="n">
-        <v>2000</v>
+        <v>0.9</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9</v>
+        <v>0.01185893647689549</v>
       </c>
       <c r="F14" t="n">
-        <v>0.014304299797401</v>
+        <v>26.70731588552928</v>
       </c>
       <c r="G14" t="n">
-        <v>40.35892835841028</v>
+        <v>33.29268411447072</v>
       </c>
       <c r="H14" t="n">
-        <v>27.64107164158972</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="I14" t="n">
         <v>44.7</v>
@@ -907,22 +907,22 @@
         <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="D15" t="n">
-        <v>2000</v>
+        <v>0.9</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9</v>
+        <v>0.01186091083911719</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01391688584252216</v>
+        <v>26.73604083024924</v>
       </c>
       <c r="G15" t="n">
-        <v>40.16858712502228</v>
+        <v>33.26395916975076</v>
       </c>
       <c r="H15" t="n">
-        <v>26.83141287497771</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="I15" t="n">
         <v>44.7</v>
@@ -941,22 +941,22 @@
         <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="D16" t="n">
-        <v>2000</v>
+        <v>0.9</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9</v>
+        <v>0.01186679790907952</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0143427598760714</v>
+        <v>26.82325215286034</v>
       </c>
       <c r="G16" t="n">
-        <v>40.14380674715758</v>
+        <v>33.17674784713967</v>
       </c>
       <c r="H16" t="n">
-        <v>27.85619325284242</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="I16" t="n">
         <v>44.7</v>
